--- a/projects/VBA/data/VBA.xlsx
+++ b/projects/VBA/data/VBA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23745" windowHeight="12480" tabRatio="901" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12750" tabRatio="901"/>
   </bookViews>
   <sheets>
     <sheet name="phone_check" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>必填入参</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
     <t>全部入参正常-问问：单独</t>
   </si>
   <si>
@@ -87,11 +84,6 @@
   </si>
   <si>
     <t>传入参数为空或格式错误，args中参数entInfo</t>
-  </si>
-  <si>
-    <t>assert '10099' == '1004'
-  - 1004
-  + 10099</t>
   </si>
   <si>
     <t>key1</t>
@@ -117,10 +109,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -145,6 +137,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -152,9 +167,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,65 +218,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,15 +242,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,15 +266,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,187 +314,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,15 +523,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -551,41 +534,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,6 +556,50 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -617,53 +609,53 @@
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4"/>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3"/>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5"/>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4"/>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6"/>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1019,8 +1011,8 @@
   <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1081,52 +1073,46 @@
       <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" ht="40.5" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="G5" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1143,7 +1129,7 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
@@ -1168,22 +1154,22 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
